--- a/TestPart/Example.xlsx
+++ b/TestPart/Example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF98998-9A13-4729-AEF2-8F696BF16359}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2322576F-7AAB-4E6A-A790-E6AC0AFEA44C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Наименование детали</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>ИНФОРМАЦИОННАЯ ТАБЛИЦА</t>
+  </si>
+  <si>
+    <t>Толщина или диаметр проката, мм</t>
   </si>
 </sst>
 </file>
@@ -240,13 +243,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -254,9 +254,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -271,6 +268,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,123 +559,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="32.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="L7" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="13"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -706,7 +718,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
